--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05429865160157542</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626199315050767</v>
+        <v>-1.626933594970853</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02609813818088628</v>
+        <v>0.02164996014409054</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2248335641559907</v>
+        <v>-0.2266657224131847</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06246692706195944</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.649564841896915</v>
+        <v>-1.651324595274529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02778076462155672</v>
+        <v>0.02285093673364296</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1996287959666028</v>
+        <v>-0.2018402928320302</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07583519944222158</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705061608075734</v>
+        <v>-1.705401596205935</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01341761185936749</v>
+        <v>-0.01742821258044164</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.209743442840081</v>
+        <v>-0.2118400363096535</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08417800717203588</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.815932366941912</v>
+        <v>-1.816818539707205</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02263664185282561</v>
+        <v>-0.02427834379634223</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2303725374438478</v>
+        <v>-0.231472776809637</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08150850010193118</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.784398467865774</v>
+        <v>-1.782837040897444</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.005591588788260468</v>
+        <v>-0.004118306890723024</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2242322888516538</v>
+        <v>-0.2259007491202325</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06794416753280584</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.605100375739292</v>
+        <v>-1.603572790182069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05747463534489419</v>
+        <v>0.0595602106806176</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2057942288647376</v>
+        <v>-0.208906064667549</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04824473242652801</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.344438087194534</v>
+        <v>-1.343074199625927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0877083946268378</v>
+        <v>0.09364716877150529</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.19519635812102</v>
+        <v>-0.1981319037822458</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02705241973074144</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9354717170408252</v>
+        <v>-0.9358557777064226</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1866118861137665</v>
+        <v>0.1906996137717844</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.169017272095547</v>
+        <v>-0.1729082473634023</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.006903665994201541</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4933313198865833</v>
+        <v>-0.4943575803536713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1982643496687555</v>
+        <v>0.2034822230558673</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1203360087119593</v>
+        <v>-0.1256703595140473</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.01258332009566574</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0132145633927197</v>
+        <v>-0.01788940018298274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1721167440257085</v>
+        <v>0.1774951673631929</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05442553202661431</v>
+        <v>-0.06069327616763365</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03338529770794395</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5448255837202557</v>
+        <v>0.5363825451535988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1376677615369216</v>
+        <v>0.1410141261888069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03870603134250479</v>
+        <v>0.03247448964127537</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05807351932945031</v>
       </c>
       <c r="E13" t="n">
-        <v>1.118942762138196</v>
+        <v>1.10632542486185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01544989882528713</v>
+        <v>0.02105340689711757</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1390639164975153</v>
+        <v>0.1343953757837375</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.08820043728559665</v>
       </c>
       <c r="E14" t="n">
-        <v>1.730627054924221</v>
+        <v>1.713552095496351</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1919900811709305</v>
+        <v>-0.1842065566160986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2582092938843709</v>
+        <v>0.2538130584785781</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1238525578286263</v>
       </c>
       <c r="E15" t="n">
-        <v>2.378742020272749</v>
+        <v>2.357676922372382</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4660944930115962</v>
+        <v>-0.4578529288924658</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3831045631213379</v>
+        <v>0.3777953966251907</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1643908770595285</v>
       </c>
       <c r="E16" t="n">
-        <v>3.004069910802208</v>
+        <v>2.981122286032765</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6998914231939939</v>
+        <v>-0.6933828541274155</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5336893984370534</v>
+        <v>0.5266739952134162</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.210136579895756</v>
       </c>
       <c r="E17" t="n">
-        <v>3.603569721570243</v>
+        <v>3.580159335179138</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9450409662887728</v>
+        <v>-0.9371913329308462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6967782416523816</v>
+        <v>0.6887743544205676</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2629534673810855</v>
       </c>
       <c r="E18" t="n">
-        <v>4.17946081953789</v>
+        <v>4.150821541625824</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.165902607332321</v>
+        <v>-1.159654538430318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8325074845012611</v>
+        <v>0.8239416724431428</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3254533883026371</v>
       </c>
       <c r="E19" t="n">
-        <v>4.658466318532115</v>
+        <v>4.626557802905108</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.373915530288693</v>
+        <v>-1.371749679977783</v>
       </c>
       <c r="G19" t="n">
-        <v>1.007269253520155</v>
+        <v>0.9991677771028206</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.399579877392263</v>
       </c>
       <c r="E20" t="n">
-        <v>5.031667826211629</v>
+        <v>4.994517826910691</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.54459193267825</v>
+        <v>-1.544995668582864</v>
       </c>
       <c r="G20" t="n">
-        <v>1.142236671114325</v>
+        <v>1.134213895653056</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4858976197894166</v>
       </c>
       <c r="E21" t="n">
-        <v>5.369447607585394</v>
+        <v>5.332044191205925</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.758815148077713</v>
+        <v>-1.759665905412777</v>
       </c>
       <c r="G21" t="n">
-        <v>1.274292153334089</v>
+        <v>1.266670752748751</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5809355139731502</v>
       </c>
       <c r="E22" t="n">
-        <v>5.671143000603339</v>
+        <v>5.629108819969003</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.908325715343141</v>
+        <v>-1.911794853486488</v>
       </c>
       <c r="G22" t="n">
-        <v>1.382507541942633</v>
+        <v>1.374475322366635</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6782229667590514</v>
       </c>
       <c r="E23" t="n">
-        <v>5.837625429044191</v>
+        <v>5.793142074657112</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.037679393741192</v>
+        <v>-2.041308294825351</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494517890652632</v>
+        <v>1.484247415886145</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7724834568970754</v>
       </c>
       <c r="E24" t="n">
-        <v>5.999171733520645</v>
+        <v>5.952601229778721</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.131447647844878</v>
+        <v>-2.13488687962492</v>
       </c>
       <c r="G24" t="n">
-        <v>1.531571874787172</v>
+        <v>1.523939456067985</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.860072813306156</v>
       </c>
       <c r="E25" t="n">
-        <v>6.096490187752424</v>
+        <v>6.047572821500641</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.164662599342565</v>
+        <v>-2.168450476357975</v>
       </c>
       <c r="G25" t="n">
-        <v>1.603657228485379</v>
+        <v>1.595996477422009</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9373963181582531</v>
       </c>
       <c r="E26" t="n">
-        <v>6.150512098014585</v>
+        <v>6.103363929255144</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.187579530739142</v>
+        <v>-2.191322548209595</v>
       </c>
       <c r="G26" t="n">
-        <v>1.67598812916651</v>
+        <v>1.665720802438265</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.001916525333962</v>
       </c>
       <c r="E27" t="n">
-        <v>6.138628253648764</v>
+        <v>6.091738224025216</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.182247540965736</v>
+        <v>-2.186699654050335</v>
       </c>
       <c r="G27" t="n">
-        <v>1.648571864111694</v>
+        <v>1.638567398576707</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.053785247344926</v>
       </c>
       <c r="E28" t="n">
-        <v>6.07952068760568</v>
+        <v>6.031505234310403</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.197044894725084</v>
+        <v>-2.201147575564754</v>
       </c>
       <c r="G28" t="n">
-        <v>1.64078519151862</v>
+        <v>1.631947074152517</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.094139818810832</v>
       </c>
       <c r="E29" t="n">
-        <v>5.976740387022988</v>
+        <v>5.930220251892947</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.149048329659262</v>
+        <v>-2.153034533083956</v>
       </c>
       <c r="G29" t="n">
-        <v>1.61459823539754</v>
+        <v>1.605665676884159</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.125053349113664</v>
       </c>
       <c r="E30" t="n">
-        <v>5.84679723846401</v>
+        <v>5.799779713291637</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.151070157220573</v>
+        <v>-2.152899954449085</v>
       </c>
       <c r="G30" t="n">
-        <v>1.550277518024709</v>
+        <v>1.540479248994612</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.149467223301565</v>
       </c>
       <c r="E31" t="n">
-        <v>5.645928788299223</v>
+        <v>5.601667370608248</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.093550776470882</v>
+        <v>-2.097349671620141</v>
       </c>
       <c r="G31" t="n">
-        <v>1.48738758403314</v>
+        <v>1.477490151798401</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.1691665025609</v>
       </c>
       <c r="E32" t="n">
-        <v>5.463262295253156</v>
+        <v>5.420374996255077</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.01836224407503</v>
+        <v>-2.021651944038548</v>
       </c>
       <c r="G32" t="n">
-        <v>1.442707477255899</v>
+        <v>1.434085000509414</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.184907424403906</v>
       </c>
       <c r="E33" t="n">
-        <v>5.193316441930968</v>
+        <v>5.15480019403274</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.986144433690687</v>
+        <v>-1.986901536888032</v>
       </c>
       <c r="G33" t="n">
-        <v>1.381785067165956</v>
+        <v>1.374214035192499</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.196220608862546</v>
       </c>
       <c r="E34" t="n">
-        <v>4.963108275345135</v>
+        <v>4.929564353851097</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.91822314757788</v>
+        <v>-1.918511193077078</v>
       </c>
       <c r="G34" t="n">
-        <v>1.286682831856968</v>
+        <v>1.278702554911974</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.202043149652962</v>
       </c>
       <c r="E35" t="n">
-        <v>4.669367974966244</v>
+        <v>4.639160974009362</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.881172311481583</v>
+        <v>-1.881605953749502</v>
       </c>
       <c r="G35" t="n">
-        <v>1.200492692812785</v>
+        <v>1.193198688204678</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.200042170687252</v>
       </c>
       <c r="E36" t="n">
-        <v>4.291080811505807</v>
+        <v>4.265935856043028</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.841477910271062</v>
+        <v>-1.842835501763184</v>
       </c>
       <c r="G36" t="n">
-        <v>1.151013401734698</v>
+        <v>1.143878373057842</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.187418241832219</v>
       </c>
       <c r="E37" t="n">
-        <v>3.976450129349012</v>
+        <v>3.95414470438106</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.797747724033525</v>
+        <v>-1.801254638635783</v>
       </c>
       <c r="G37" t="n">
-        <v>1.067957134761025</v>
+        <v>1.061119595698094</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.162328973131521</v>
       </c>
       <c r="E38" t="n">
-        <v>3.68716272906428</v>
+        <v>3.668701058790544</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.721180350887414</v>
+        <v>-1.724352786426396</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9870383857540774</v>
+        <v>0.9831300962758879</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.124375611172135</v>
       </c>
       <c r="E39" t="n">
-        <v>3.338583602499273</v>
+        <v>3.324584276434424</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.684190901536848</v>
+        <v>-1.686909232559334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9032297376404224</v>
+        <v>0.8996346779673716</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.074595687575642</v>
       </c>
       <c r="E40" t="n">
-        <v>3.007468218085096</v>
+        <v>2.995455304151329</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.646974006423254</v>
+        <v>-1.648722741667019</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8413141214849384</v>
+        <v>0.8384934792195676</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.015653734764312</v>
       </c>
       <c r="E41" t="n">
-        <v>2.68199254418254</v>
+        <v>2.673393677722874</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.627743427808763</v>
+        <v>-1.62845488445159</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7862407664497487</v>
+        <v>0.78418509747733</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9502664122125636</v>
       </c>
       <c r="E42" t="n">
-        <v>2.343669726211927</v>
+        <v>2.337735674124624</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.576387905938085</v>
+        <v>-1.576887657009098</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7227999257657245</v>
+        <v>0.7223954028515502</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8801289912486358</v>
       </c>
       <c r="E43" t="n">
-        <v>2.083947127082586</v>
+        <v>2.080422898269994</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.522317201083164</v>
+        <v>-1.524043900059231</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6463293547955732</v>
+        <v>0.6465040709180375</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8062440472618549</v>
       </c>
       <c r="E44" t="n">
-        <v>1.830311259895314</v>
+        <v>1.827079798639284</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.504643327379639</v>
+        <v>-1.505493297705141</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5613008418629101</v>
+        <v>0.5610080743063481</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7305778994531267</v>
       </c>
       <c r="E45" t="n">
-        <v>1.604395443453269</v>
+        <v>1.601404807122798</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.42582746791875</v>
+        <v>-1.426769518362848</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5066036773977112</v>
+        <v>0.5064746078297645</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6555656679520371</v>
       </c>
       <c r="E46" t="n">
-        <v>1.389999872960024</v>
+        <v>1.388836672829383</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.361395782197867</v>
+        <v>-1.364319522715683</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4426701687287198</v>
+        <v>0.4435075469012518</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5828249940364132</v>
       </c>
       <c r="E47" t="n">
-        <v>1.238003142492502</v>
+        <v>1.236981604082778</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.311757515188528</v>
+        <v>-1.316661371760941</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3781574210230898</v>
+        <v>0.3794874671805889</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5131714874380513</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026502193163328</v>
+        <v>1.027001157224781</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.234887930371127</v>
+        <v>-1.238837144346471</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2926771646026133</v>
+        <v>0.2941976670737898</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4472215678149358</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8684281748684641</v>
+        <v>0.8695976710755906</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.164548950888003</v>
+        <v>-1.168254978909105</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2478302117985142</v>
+        <v>0.2495506146980958</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3853912375271896</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7699591126590144</v>
+        <v>0.7709050981509161</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.091121745888886</v>
+        <v>-1.095450298472463</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2112799137827909</v>
+        <v>0.2122463615232695</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3273341549778574</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6332350897254728</v>
+        <v>0.6353253871185601</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.060125374342673</v>
+        <v>-1.063337947369247</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1690096302802609</v>
+        <v>0.1704593018909789</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2728352499278333</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4614025702913193</v>
+        <v>0.462735764487061</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.022590527366576</v>
+        <v>-1.026660153804699</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1260263161157817</v>
+        <v>0.127734126862393</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2211896034975771</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4017173392307185</v>
+        <v>0.402499626734005</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.023510541542976</v>
+        <v>-1.025901476588232</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09977797324897147</v>
+        <v>0.1008309920411216</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1714354948117593</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2467756189872427</v>
+        <v>0.2460421260767166</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9624315165504633</v>
+        <v>-0.9652789171408963</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05362930663155661</v>
+        <v>0.05431715298756501</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1234609863602353</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1285384506333777</v>
+        <v>0.1275326524148665</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9390809428859677</v>
+        <v>-0.9410681420266098</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02641766406251032</v>
+        <v>0.02720782166140327</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.07826427481215215</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04083095715626072</v>
+        <v>0.0394174879853327</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9226828116802571</v>
+        <v>-0.9250076379224182</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.009115817600852708</v>
+        <v>-0.008451581531663817</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.03714451924468513</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07060330055534278</v>
+        <v>-0.07279905722955723</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9239939696083006</v>
+        <v>-0.9258583952574813</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05079741795201622</v>
+        <v>-0.05064159005900745</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0006656324485174293</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1281494396300959</v>
+        <v>-0.1285508145060276</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9031421512988698</v>
+        <v>-0.9060564477019579</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08170800545611913</v>
+        <v>-0.0809556243161374</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03189003534174821</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2073052872211862</v>
+        <v>-0.2081709977379016</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9121069772042378</v>
+        <v>-0.9146852205249283</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1051262619428308</v>
+        <v>-0.1058723470063273</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06157181985650121</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3029962056815402</v>
+        <v>-0.301691343829982</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9083246092557522</v>
+        <v>-0.9109335459493081</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1243670716816104</v>
+        <v>-0.1250281597125567</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08983093120170924</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.394953550786169</v>
+        <v>-0.3945946744265125</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8901195040987885</v>
+        <v>-0.8926096023486861</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1476027419502511</v>
+        <v>-0.1470376690857042</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1175853326957108</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5053820102792613</v>
+        <v>-0.5030146855208252</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.877752435862729</v>
+        <v>-0.8814537418264675</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1768149628224706</v>
+        <v>-0.1761318385238261</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1453415591117228</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5679209380067803</v>
+        <v>-0.5667892182585651</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8881220738338579</v>
+        <v>-0.890949012175714</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1981256077057606</v>
+        <v>-0.1974377613497522</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1734537606079011</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6916986536676237</v>
+        <v>-0.6876549985450023</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9097286343119524</v>
+        <v>-0.912804267674974</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2359807675730421</v>
+        <v>-0.2344964675416556</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.201555881281788</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8145807524484472</v>
+        <v>-0.8098177705873912</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9418480685012143</v>
+        <v>-0.946984879903579</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2826283982519093</v>
+        <v>-0.2801729284226803</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2285193120421752</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9102897721286961</v>
+        <v>-0.906247691025196</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9709808014078081</v>
+        <v>-0.9761325659918252</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3096338443160652</v>
+        <v>-0.3068651446816973</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2528518020579336</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.954430777356892</v>
+        <v>-0.9495670582720729</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.009742596288959</v>
+        <v>-1.01531068893056</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3512666500744684</v>
+        <v>-0.3468294901715218</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2734799882881068</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9996334584824051</v>
+        <v>-0.9952812956120087</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.022957273821839</v>
+        <v>-1.026258778928767</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3741056675245414</v>
+        <v>-0.3696936919275356</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2905902487191095</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.070363581717173</v>
+        <v>-1.061885127720287</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.072117826027863</v>
+        <v>-1.074633895593262</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3949173483463791</v>
+        <v>-0.3897010489783886</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3049419407989649</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.098758886665437</v>
+        <v>-1.089088900193727</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.118977949288105</v>
+        <v>-1.118743420439031</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4097839589470641</v>
+        <v>-0.4032124291156337</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3165873701025342</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.122343989179007</v>
+        <v>-1.109407913030597</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.127595703977226</v>
+        <v>-1.127592555938984</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4397595790931144</v>
+        <v>-0.4331014782100125</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3246634339286968</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.151908790334398</v>
+        <v>-1.135219465591246</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.173361096938605</v>
+        <v>-1.170518418405535</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4180585774677418</v>
+        <v>-0.4108936424275811</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3280439963605183</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.130832674300181</v>
+        <v>-1.110785966771296</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.195709020422832</v>
+        <v>-1.194906270670969</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4254533192996124</v>
+        <v>-0.417871269192307</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3258212559345887</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.137253885305528</v>
+        <v>-1.114889434620527</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.221027904998514</v>
+        <v>-1.218034907639361</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4305673074247184</v>
+        <v>-0.4222218580435821</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3180055202224374</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.098384270114568</v>
+        <v>-1.073462825367014</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.235770168088616</v>
+        <v>-1.234672289751509</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.439019790106103</v>
+        <v>-0.4295064185369617</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3055274263678988</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.008504630250056</v>
+        <v>-0.9845362540804495</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.254254661639611</v>
+        <v>-1.250379426562969</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4128218158511744</v>
+        <v>-0.4029763262474386</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2893943222865317</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9475420826725195</v>
+        <v>-0.9233273725104297</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.261813101460097</v>
+        <v>-1.259699980789751</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3953864060445267</v>
+        <v>-0.385714058544134</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2703227895249568</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7966243423126489</v>
+        <v>-0.7746053888247736</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.248939199066978</v>
+        <v>-1.246099668572152</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3524503124536865</v>
+        <v>-0.3419862333352796</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2484172948965677</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.682507956018349</v>
+        <v>-0.6611060180260236</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.267939183880199</v>
+        <v>-1.266284102774151</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3372688980287414</v>
+        <v>-0.3270975864668964</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2234490909313611</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5222271629154214</v>
+        <v>-0.503181531547683</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.261736761532714</v>
+        <v>-1.261667504691377</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3139797111099764</v>
+        <v>-0.3047292007340923</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1951855415701442</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.376082635540895</v>
+        <v>-0.3581230773668542</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.280173247500509</v>
+        <v>-1.279124950765722</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2915735489182611</v>
+        <v>-0.2814116814711439</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1639705548777186</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2135210887312026</v>
+        <v>-0.196641307674374</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.292734707098049</v>
+        <v>-1.291100088240578</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2656006593976785</v>
+        <v>-0.2560353451975342</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1307904337974467</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.01780912520779641</v>
+        <v>-0.001645522851159644</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.27094162535408</v>
+        <v>-1.270708670524128</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1986009614803934</v>
+        <v>-0.191354177445925</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09668746576403568</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1472771482724623</v>
+        <v>0.1626631851831765</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.268588466767736</v>
+        <v>-1.269211778339771</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1748395688252382</v>
+        <v>-0.1677517607220212</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06134164880360179</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3164070768753425</v>
+        <v>0.3324841081803078</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.188921062962223</v>
+        <v>-1.189871770511488</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1286909022078234</v>
+        <v>-0.1222988105562213</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02438074386976427</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5230553252535459</v>
+        <v>0.5358489526714779</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119781486049529</v>
+        <v>-1.119894815426263</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07476658113118309</v>
+        <v>-0.06943537836733767</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01363484214291339</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7143285548548842</v>
+        <v>0.7251483622947051</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.036081445255244</v>
+        <v>-1.037446906842972</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02753184132007076</v>
+        <v>-0.02335911662950263</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05081880587820876</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8732053229016117</v>
+        <v>0.8827533228914217</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9106722587751722</v>
+        <v>-0.9124209940189373</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.003735820244246957</v>
+        <v>0.0008256871692824363</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08493718544439011</v>
       </c>
       <c r="E89" t="n">
-        <v>1.013774674548491</v>
+        <v>1.022800100190029</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8038050175440227</v>
+        <v>-0.8066067715799379</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03120268219126441</v>
+        <v>0.03480403794080038</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.113447439805222</v>
       </c>
       <c r="E90" t="n">
-        <v>1.116728117234526</v>
+        <v>1.124176375716521</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6579721459555139</v>
+        <v>-0.6613972115634642</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04938260304228735</v>
+        <v>0.0526927652543827</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1331357843002989</v>
       </c>
       <c r="E91" t="n">
-        <v>1.219113339017772</v>
+        <v>1.224357970729946</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4843814471628676</v>
+        <v>-0.4878222529620309</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02396376825240255</v>
+        <v>0.02718421137458375</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1407708122062253</v>
       </c>
       <c r="E92" t="n">
-        <v>1.256990535152752</v>
+        <v>1.26135686419524</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3333920889329778</v>
+        <v>-0.338282566342859</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05211037817950145</v>
+        <v>0.05452807154981931</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1351706304305294</v>
       </c>
       <c r="E93" t="n">
-        <v>1.287021245968048</v>
+        <v>1.290658804157374</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2255875193150937</v>
+        <v>-0.2306416947135902</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0414700089195088</v>
+        <v>0.04234358953183068</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1182057309005908</v>
       </c>
       <c r="E94" t="n">
-        <v>1.239164768604022</v>
+        <v>1.24152264924773</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09792355044375882</v>
+        <v>-0.1035522428215301</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05860635509310939</v>
+        <v>0.05967511407647255</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09522558634969493</v>
       </c>
       <c r="E95" t="n">
-        <v>1.210873348917763</v>
+        <v>1.211779983931632</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01126435370142815</v>
+        <v>-0.0152859725563514</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01549239734156225</v>
+        <v>0.01622903829033097</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07161014681153904</v>
       </c>
       <c r="E96" t="n">
-        <v>1.122356809612298</v>
+        <v>1.123197335823072</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06727605241323358</v>
+        <v>0.06271611901882548</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02600976482977299</v>
+        <v>-0.02521488517351614</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05158288570429501</v>
       </c>
       <c r="E97" t="n">
-        <v>1.061838922436529</v>
+        <v>1.062405569320197</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1154426115441559</v>
+        <v>0.1106512973389166</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01215524852408434</v>
+        <v>-0.01179952020267038</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03750500396995782</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9601179367224718</v>
+        <v>0.9608718918815748</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1103726959544464</v>
+        <v>0.1072183616353598</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06594892601365664</v>
+        <v>-0.06484239057138226</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02988557820851057</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9030628916135645</v>
+        <v>0.9028551210895528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1232135439460174</v>
+        <v>0.120887143684735</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05821891810894896</v>
+        <v>-0.05684479941605346</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02582926124127134</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8495478155084624</v>
+        <v>0.8503757495662666</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1163193401947204</v>
+        <v>0.1137584110843642</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06654547926062961</v>
+        <v>-0.06497460817757152</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.02356911113925383</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7702282699287568</v>
+        <v>0.7704297443762833</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1099461367725739</v>
+        <v>0.1080683319608622</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06316291216895442</v>
+        <v>-0.06288745882272681</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01672457141987175</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7481164493127248</v>
+        <v>0.747285367216678</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1078149148823328</v>
+        <v>0.1074261321593715</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06277412944599316</v>
+        <v>-0.06274264906356714</v>
       </c>
     </row>
   </sheetData>
